--- a/1/10/Estado de fondos especiales 2005 a 2021 - Trimestral.xlsx
+++ b/1/10/Estado de fondos especiales 2005 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Serie</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2419,6 +2422,35 @@
         <v>-3622</v>
       </c>
     </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>7331</v>
+      </c>
+      <c r="E68">
+        <v>2482</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>-55</v>
+      </c>
+      <c r="I68">
+        <v>-2449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
